--- a/biology/Histoire de la zoologie et de la botanique/Kálmán_Kertész/Kálmán_Kertész.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kálmán_Kertész/Kálmán_Kertész.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A1lm%C3%A1n_Kert%C3%A9sz</t>
+          <t>Kálmán_Kertész</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kálmán Kertész, né le 2 janvier 1867 à Eperjes et mort le 28 décembre 1922 à Budapest, est un entomologiste et zoologiste hongrois spécialiste des diptères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A1lm%C3%A1n_Kert%C3%A9sz</t>
+          <t>Kálmán_Kertész</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en médecine en 1890 à l'Université de Budapest, il devient stagiaire de Tivadar Margó (hu) en zoologie et anatomie comparée. En 1894, il obtient un doctorat et devient professeur assistant.
 Il entre en 1896 au Musée national hongrois dont il devient directeur du département de zoologie en 1912, poste qu'il occupera jusqu'à sa mort.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A1lm%C3%A1n_Kert%C3%A9sz</t>
+          <t>Kálmán_Kertész</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit plus de 70 ouvrages dont :
 Budapest és környékének Rotatoria-faunája, 1894
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%A1lm%C3%A1n_Kert%C3%A9sz</t>
+          <t>Kálmán_Kertész</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Membre de l'Académie hongroise des sciences (1910)
 Quatre espèces de moustiques qu'il a découvert portent son nom.</t>
